--- a/group/outputs/單位版分析.xlsx
+++ b/group/outputs/單位版分析.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="回報參數" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <sheet name="各機構已實施之福利措施" sheetId="42" r:id="rId42"/>
     <sheet name="單位是否有非工程與科技領域背景人員轉任工程職務之事例" sheetId="43" r:id="rId43"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -2154,7 +2154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3366,7 +3366,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I10"/>
+      <selection activeCell="C5" sqref="C5:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3633,6 +3633,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4547,13 +4548,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5196,13 +5197,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6393,13 +6394,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7042,13 +7043,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10652,8 +10653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="B4:U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11026,16 +11027,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11678,13 +11679,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12327,13 +12328,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13526,13 +13527,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14175,13 +14176,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15377,13 +15378,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16026,13 +16027,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17459,7 +17460,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C20"/>
+      <selection activeCell="J3" sqref="J3:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18090,13 +18091,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A3:A8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18739,13 +18740,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A3:A8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
